--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999979492</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E2">
-        <v>0.9999999999979492</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999273976</v>
+        <v>0.9999999723025556</v>
       </c>
       <c r="E3">
-        <v>0.9999999999273976</v>
+        <v>0.9999999723025556</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999999968721</v>
+        <v>0.99995880133668</v>
       </c>
       <c r="E4">
-        <v>0.9999999999968721</v>
+        <v>0.99995880133668</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.053768690923918E-05</v>
+        <v>1.868419064622942E-06</v>
       </c>
       <c r="E5">
-        <v>1.053768690923918E-05</v>
+        <v>1.868419064622942E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.628675390168458E-19</v>
+        <v>2.494484214408409E-07</v>
       </c>
       <c r="E6">
-        <v>1.628675390168458E-19</v>
+        <v>2.494484214408409E-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0004467185184670184</v>
+        <v>9.384384495062622E-08</v>
       </c>
       <c r="E7">
-        <v>0.999553281481533</v>
+        <v>0.9999999061561551</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999846858</v>
+        <v>0.9999999976773168</v>
       </c>
       <c r="E9">
-        <v>1.531419435707448E-11</v>
+        <v>2.32268315691897E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.641363593855562E-05</v>
+        <v>0.0008860081615993525</v>
       </c>
       <c r="E10">
-        <v>0.9999535863640614</v>
+        <v>0.9991139918384007</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.113464359883806E-07</v>
+        <v>2.516947671850238E-05</v>
       </c>
       <c r="E11">
-        <v>0.999999688653564</v>
+        <v>0.9999748305232815</v>
       </c>
       <c r="F11">
-        <v>10.94232749938965</v>
+        <v>9.692987442016602</v>
       </c>
       <c r="G11">
         <v>0.4</v>
